--- a/src/test/resources/test-export-student.xlsx
+++ b/src/test/resources/test-export-student.xlsx
@@ -12,22 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
-  <si>
-    <t>制表人</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>制表时间</t>
-  </si>
-  <si>
-    <t>2019-03-21 11:08:51</t>
-  </si>
-  <si>
-    <t>家族信托项目期间管理报告披露频率信息配置表</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
@@ -68,7 +53,7 @@
     <t>Stu_0</t>
   </si>
   <si>
-    <t>2019-03-28</t>
+    <t>2019-05-12</t>
   </si>
   <si>
     <t>正常</t>
@@ -260,7 +245,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
-      <pane ySplit="3.0" state="frozen" topLeftCell="A4" activePane="bottomLeft"/>
+      <pane ySplit="4.0" state="frozen" topLeftCell="A5" activePane="bottomLeft"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -274,208 +259,947 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3"/>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>14</v>
+        <v>26</v>
+      </c>
+      <c r="C4" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C5" t="n">
-        <v>20.0</v>
+        <v>23.0</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>21</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="H5"/>
       <c r="I5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" t="s">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="J5"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C6" t="n">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6"/>
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
       <c r="I6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6"/>
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>22.0</v>
+        <v>20.0</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C8" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="H8"/>
       <c r="I8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J8"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C9" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10"/>
+      <c r="I10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="n">
         <v>24.0</v>
       </c>
-      <c r="D9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="I9" t="s">
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
         <v>22</v>
       </c>
-      <c r="J9" t="s">
+      <c r="G13" t="s">
         <v>23</v>
+      </c>
+      <c r="H13"/>
+      <c r="I13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15"/>
+      <c r="I15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18"/>
+      <c r="I18" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20"/>
+      <c r="I20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23"/>
+      <c r="I23" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25"/>
+      <c r="I25" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28"/>
+      <c r="I28" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30"/>
+      <c r="I30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
